--- a/data/income_statement/1digit/size/E_IS_MICRO.xlsx
+++ b/data/income_statement/1digit/size/E_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>E-Water supply; sewerage; waste management and remediation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>E-Water supply; sewerage; waste management and remediation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,248 +841,283 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>94701.50772999998</v>
+        <v>103367.49465</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>117986.57492</v>
+        <v>130540.69904</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>228774.07734</v>
+        <v>242048.08834</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>142004.22972</v>
+        <v>160107.83803</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>214237.94631</v>
+        <v>236249.8919</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>307772.37109</v>
+        <v>339602.8248</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>262055.60186</v>
+        <v>309405.16885</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>344517.51361</v>
+        <v>393728.18241</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>495426.71242</v>
+        <v>552184.4656100001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>970156.71707</v>
+        <v>1122795.49911</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1032225.75262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1196131.6425</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1487369.633</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>91664.83168</v>
+        <v>99650.38107999999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>115171.1527</v>
+        <v>126796.64019</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>223145.47292</v>
+        <v>235709.31467</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>133247.75047</v>
+        <v>149953.33607</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>192472.96087</v>
+        <v>212418.29037</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>273833.80444</v>
+        <v>303687.37004</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>251839.72874</v>
+        <v>294030.1296</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>330035.82862</v>
+        <v>375212.2311499999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>481597.40839</v>
+        <v>531143.62041</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>909895.62368</v>
+        <v>1052355.4932</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>954573.42102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1104659.68078</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1397288.768</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1588.0727</v>
+        <v>1739.69478</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>590.0311</v>
+        <v>969.57925</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>2112.5723</v>
+        <v>2223.09588</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>4698.686400000001</v>
+        <v>4877.577499999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>16645.02412</v>
+        <v>18337.94201</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>27907.8794</v>
+        <v>28810.30991</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>3545.935309999999</v>
+        <v>5363.891149999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>7247.797309999999</v>
+        <v>9315.236640000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>3701.27272</v>
+        <v>7396.64157</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>41505.75364</v>
+        <v>45060.70137</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>60068.78310999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>68624.19851999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>60653.636</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1448.60335</v>
+        <v>1977.41879</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2225.39112</v>
+        <v>2774.4796</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3516.03212</v>
+        <v>4115.67779</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>4057.79285</v>
+        <v>5276.92446</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>5119.961319999999</v>
+        <v>5493.65952</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>6030.68725</v>
+        <v>7105.14485</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6669.93781</v>
+        <v>10011.1481</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>7233.887680000001</v>
+        <v>9200.714619999999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>10128.03131</v>
+        <v>13644.20363</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>18755.33975</v>
+        <v>25379.30453999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>17583.54849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>22847.7632</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>29427.229</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>209.22216</v>
+        <v>262.12505</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>218.59802</v>
+        <v>461.7327000000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>250.52934</v>
+        <v>286.92099</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>434.02986</v>
+        <v>470.8666699999999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>653.9273199999999</v>
+        <v>679.60497</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>948.7671499999999</v>
+        <v>1011.50741</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1921.89369</v>
+        <v>2102.62833</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1045.32166</v>
+        <v>1398.09194</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1710.92545</v>
+        <v>1818.33223</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4748.88821</v>
+        <v>6130.18452</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>2598.90707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3900.548020000001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>81034.41499999999</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>192.2067</v>
+        <v>245.10959</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>174.79899</v>
+        <v>417.9336700000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>243.96266</v>
+        <v>273.03229</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>382.58053</v>
+        <v>409.78948</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>584.30635</v>
+        <v>609.3356400000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>887.0357700000001</v>
+        <v>949.77603</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>862.2034699999999</v>
+        <v>1040.73311</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>810.71307</v>
+        <v>1135.40867</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>980.3453</v>
+        <v>1073.83555</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4247.797680000001</v>
+        <v>5618.862800000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2423.2767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>3635.11202</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>80511.57399999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>1.067</v>
@@ -1190,10 +1126,10 @@
         <v>18.70724</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>6.461969999999999</v>
+        <v>8.503170000000001</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>49.3825</v>
+        <v>53.4535</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>15.29595</v>
@@ -1205,22 +1141,27 @@
         <v>25.39536</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>16.13881</v>
+        <v>39.58998</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3.43981</v>
+        <v>10.65384</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>167.65294</v>
+        <v>173.69926</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>71.42569999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>84.28519</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>387.958</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>15.94846</v>
@@ -1229,232 +1170,262 @@
         <v>25.09179</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>0.10471</v>
+        <v>5.38553</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>2.06683</v>
+        <v>7.62369</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>54.32501999999999</v>
+        <v>54.97338</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>13.06095</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1034.29486</v>
+        <v>1036.49986</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>218.46978</v>
+        <v>223.09329</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>727.14034</v>
+        <v>733.8428400000001</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>333.4375899999999</v>
+        <v>337.62246</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>104.20467</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>181.15081</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>134.883</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>94492.28556999999</v>
+        <v>103105.3696</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>117767.9769</v>
+        <v>130078.96634</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>228523.548</v>
+        <v>241761.16735</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>141570.19986</v>
+        <v>159636.97136</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>213584.01899</v>
+        <v>235570.28693</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>306823.60394</v>
+        <v>338591.31739</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>260133.70817</v>
+        <v>307302.54052</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>343472.19195</v>
+        <v>392330.0904700001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>493715.78697</v>
+        <v>550366.13338</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>965407.82886</v>
+        <v>1116665.31459</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1029626.84555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1192231.09448</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1406335.218</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>75295.30389</v>
+        <v>81844.80368000001</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>97019.69576</v>
+        <v>105166.48893</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>202849.0019600001</v>
+        <v>212482.46079</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>118497.15471</v>
+        <v>132426.6906</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>179365.17661</v>
+        <v>196865.54589</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>264002.35406</v>
+        <v>285624.43171</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>222067.79872</v>
+        <v>261845.5824</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>290617.64288</v>
+        <v>331790.69837</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>431519.73652</v>
+        <v>473804.63937</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>812344.66262</v>
+        <v>950071.7594099999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>869251.6876999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1001303.82966</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1198266.595</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>17364.17552</v>
+        <v>18599.99454</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>21342.53036</v>
+        <v>22444.86025000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>14872.91327</v>
+        <v>16858.64031</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>17055.92199</v>
+        <v>21998.25747</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>32337.47685</v>
+        <v>35841.80153999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>27759.49229</v>
+        <v>35320.86297</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>31505.05637</v>
+        <v>42665.51071</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>38286.96254000001</v>
+        <v>50621.92703</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>39169.51009</v>
+        <v>47123.72021</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>144669.45107</v>
+        <v>168041.16564</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>199918.5072</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>234598.24491</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>276559.914</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>39778.14583000001</v>
+        <v>41883.25425000001</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>50589.52550000001</v>
+        <v>54156.49853</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>136120.38042</v>
+        <v>141045.88272</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>65875.75603</v>
+        <v>71862.70714</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>86378.28676999999</v>
+        <v>95320.10513</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>170214.50223</v>
+        <v>176785.11676</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>136478.9718</v>
+        <v>149220.65974</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>182738.53963</v>
+        <v>197473.22793</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>326126.30906</v>
+        <v>345940.85094</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>475194.30042</v>
+        <v>560662.77072</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>488139.06609</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>537352.54455</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>690450.434</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>17893.60612</v>
+        <v>21102.17847</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>24853.17545</v>
+        <v>28330.6657</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>51448.02386</v>
+        <v>54170.25334999999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>35444.97885</v>
+        <v>38445.22815</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>60091.70500000001</v>
+        <v>65139.98123</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>64557.65531999999</v>
+        <v>72025.23845</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>52559.44374000001</v>
+        <v>67269.10037999999</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>67993.20776999999</v>
+        <v>81546.13088</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>61212.02828</v>
+        <v>75203.15076999999</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>180969.64116</v>
+        <v>207927.93616</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>172388.47943</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>218790.17958</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>218794.106</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>259.37642</v>
@@ -1469,109 +1440,124 @@
         <v>120.49784</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>557.70799</v>
+        <v>563.65799</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>1470.70422</v>
+        <v>1493.21353</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1524.32681</v>
+        <v>2690.31157</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1598.93294</v>
+        <v>2149.41253</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>5011.88909</v>
+        <v>5536.91745</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>11511.26997</v>
+        <v>13439.88689</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>8805.634980000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>10562.86062</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>12462.141</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>19196.98168</v>
+        <v>21260.56592</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>20748.28114</v>
+        <v>24912.47741</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>25674.54604</v>
+        <v>29278.70656</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>23073.04515</v>
+        <v>27210.28076</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>34218.84238</v>
+        <v>38704.74104</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>42821.24988</v>
+        <v>52966.88567999999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>38065.90945000001</v>
+        <v>45456.95812</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>52854.54907</v>
+        <v>60539.3921</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>62196.05045</v>
+        <v>76561.49400999999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>153063.16624</v>
+        <v>166593.55518</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>160375.15785</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>190927.26482</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>208068.623</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>16519.77727</v>
+        <v>20417.97012</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>19684.15932</v>
+        <v>23877.2216</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>25864.40902</v>
+        <v>31195.81444</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>27378.82978</v>
+        <v>35735.68125</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>39272.20405</v>
+        <v>51741.00530999999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>40897.62865000001</v>
+        <v>55632.67354</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>47277.702</v>
+        <v>74904.36012</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>59191.03326999999</v>
+        <v>96399.00464</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>64844.54595</v>
+        <v>89779.55796000001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>145112.7277</v>
+        <v>168714.02223</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>163314.74202</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>209866.64562</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>253296.665</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>6.9604</v>
@@ -1583,229 +1569,259 @@
         <v>284.63965</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>505.7253899999999</v>
+        <v>507.33633</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>392.20543</v>
+        <v>396.16743</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>223.00495</v>
+        <v>237.50745</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>152.53765</v>
+        <v>157.78765</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>107.67931</v>
+        <v>163.81911</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>52.21846</v>
+        <v>62.13828</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>288.72961</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>673.6368700000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>681.34422</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>445.568</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>2931.82706</v>
+        <v>3475.42507</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3951.27118</v>
+        <v>4177.39525</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>3148.94681</v>
+        <v>3824.366459999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4283.235310000001</v>
+        <v>5184.355769999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>4238.78521</v>
+        <v>5042.593720000001</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>6232.52679</v>
+        <v>6669.51575</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>6232.84748</v>
+        <v>7054.65115</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>6777.759340000001</v>
+        <v>9187.55344</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>9518.53435</v>
+        <v>11885.61391</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>22790.68564</v>
+        <v>24897.12933</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>26195.40237</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>30167.18634</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>27298.444</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>13580.98981</v>
+        <v>16935.58465</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>15630.25127</v>
+        <v>19597.18948</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>22430.82256</v>
+        <v>27086.80833</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>22589.86908</v>
+        <v>30043.98915</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>34641.21341</v>
+        <v>46302.24415999999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>34442.09690999999</v>
+        <v>48725.65033999999</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>40892.31687</v>
+        <v>67691.92131999999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>52305.59462</v>
+        <v>87047.63209</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>55273.79314</v>
+        <v>77831.80576999999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>122033.31245</v>
+        <v>143528.16329</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>136445.70278</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>179018.11506</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>225552.653</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>2677.20441</v>
+        <v>842.5958000000002</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1064.12182</v>
+        <v>1035.25581</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-189.86298</v>
+        <v>-1917.10788</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-4305.78463</v>
+        <v>-8525.40049</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-5053.36167</v>
+        <v>-13036.26427</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1923.62123</v>
+        <v>-2665.787859999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-9211.79255</v>
+        <v>-29447.40200000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-6336.4842</v>
+        <v>-35859.61254</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-2648.4955</v>
+        <v>-13218.06395</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7950.438539999998</v>
+        <v>-2120.46705</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-2939.584170000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-18939.38080000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-45228.042</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>445.14897</v>
+        <v>4239.619009999999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>451.1056899999999</v>
+        <v>3004.37623</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>642.6956300000001</v>
+        <v>3179.94064</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>1664.99819</v>
+        <v>4211.14649</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1014.63987</v>
+        <v>6416.210359999999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2644.61192</v>
+        <v>7791.039470000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2019.21797</v>
+        <v>40833.15569</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1677.9691</v>
+        <v>23922.95709999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3127.55043</v>
+        <v>23212.53661</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12890.19615</v>
+        <v>51128.08428</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7040.86227</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>34823.80431</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>69812.32000000001</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>73.18512</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>1.0166</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>8.354889999999999</v>
+        <v>226.06347</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>12.94435</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1.31445</v>
+        <v>238.86941</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>10.73782</v>
+        <v>5515.73245</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5.12312</v>
+        <v>229.03939</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>7.18266</v>
+        <v>1433.211</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>229.66386</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>278.35438</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>7574.5897</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>10991.65</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1814,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>590.5137099999999</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>0</v>
@@ -1835,67 +1851,77 @@
         <v>0</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>2320.02877</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>2561.44817</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>29.526</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>72.91283</v>
+        <v>480.7428200000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>153.30243</v>
+        <v>220.81112</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>177.81453</v>
+        <v>228.39269</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>192.197</v>
+        <v>361.43731</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>156.07814</v>
+        <v>1248.49732</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>310.4078</v>
+        <v>1069.48864</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>196.56645</v>
+        <v>1536.20011</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>265.15079</v>
+        <v>9812.855139999998</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>269.68622</v>
+        <v>10875.63088</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1108.52234</v>
+        <v>5010.22714</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1309.9353</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>4299.37857</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>5649.006</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1.35</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>3.6</v>
+        <v>3.63639</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>3.3</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2.619</v>
+        <v>202.619</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>1.2</v>
@@ -1904,13 +1930,13 @@
         <v>1.125</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>33.79109</v>
+        <v>33.79345</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>302.84287</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0.637</v>
+        <v>303.73661</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>32.3291</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>164.3304</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>218.877</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>2.9</v>
@@ -1931,115 +1962,130 @@
         <v>5.72987</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>2.9</v>
+        <v>3.41</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>2.9</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>5.66396</v>
+        <v>192.37238</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>0.02587</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>40.354</v>
+        <v>3628.25972</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>602.95401</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>45.02783</v>
+        <v>145.74394</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>118.27596</v>
+        <v>118.96476</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>13.45884</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>4357.022</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>18.89208</v>
+        <v>27.43311</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>5.11211</v>
+        <v>8.120089999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>7.89979</v>
+        <v>695.06375</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>8.85126</v>
+        <v>1102.60192</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>5.233860000000001</v>
+        <v>379.87001</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>4.39677</v>
+        <v>15.38753</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>2.30933</v>
+        <v>30.52698</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>7.15233</v>
+        <v>8.344719999999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>12.0747</v>
+        <v>18.54532</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>18.12181</v>
+        <v>2407.23104</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>25.69082</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>26.96688</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>65.13200000000001</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>179.45918</v>
+        <v>3319.88977</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>100.35282</v>
+        <v>2312.36477</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>227.7395</v>
+        <v>1298.46523</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1052.46755</v>
+        <v>1837.72622</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>500.1607099999999</v>
+        <v>3829.023790000001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1062.73496</v>
+        <v>3935.28726</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>813.8412900000002</v>
+        <v>20278.162</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>531.6893600000001</v>
+        <v>9712.69311</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>408.54763</v>
+        <v>6796.596810000001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8178.92716</v>
+        <v>36648.36695</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2929.70401</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>16260.96238</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>43412.084</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>13.11615</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2105,7 +2156,7 @@
         <v>5.36883</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>16.66268</v>
+        <v>17.01856</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>86.07978</v>
@@ -2113,170 +2164,195 @@
       <c r="M34" s="48" t="n">
         <v>33.40447</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>116.757</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>169.63488</v>
+        <v>407.30331</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>183.00846</v>
+        <v>380.52887</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>218.60203</v>
+        <v>355.33888</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>397.60849</v>
+        <v>477.79857</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>329.25114</v>
+        <v>748.1948</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1157.43464</v>
+        <v>2423.68333</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>851.3401700000001</v>
+        <v>9740.203160000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>560.6418000000001</v>
+        <v>3248.85903</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2360.41921</v>
+        <v>3614.74099</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>3101.96853</v>
+        <v>4258.88527</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2272.8679</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3876.14875</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>4972.266</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>558.98814</v>
+        <v>3991.37662</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>284.65474</v>
+        <v>1977.4811</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>739.72748</v>
+        <v>4230.001990000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1242.57686</v>
+        <v>1921.82043</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1019.50172</v>
+        <v>14284.50645</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1307.49805</v>
+        <v>5148.575069999999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1730.52728</v>
+        <v>25295.81988</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1402.64883</v>
+        <v>13757.63196</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2780.38378</v>
+        <v>12744.0134</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11365.92827</v>
+        <v>40949.17455999999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4096.52897</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>21044.87751</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>54841.368</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>22.41286</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1.74581</v>
+        <v>11.67236</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>33.7128</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>11.23403</v>
+        <v>12.89967</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>2.27779</v>
+        <v>9.013669999999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>35.41543</v>
+        <v>37.86221</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>9.5204</v>
+        <v>12.11971</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>2.10586</v>
+        <v>2.90326</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>10.26629</v>
+        <v>74.08544999999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>391.4382</v>
+        <v>391.4381999999999</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>22.03819</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>90.40279999999998</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>115.703</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>69.34255</v>
+        <v>183.36688</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>64.28658999999999</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>291.10752</v>
+        <v>336.10752</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>54.84107</v>
+        <v>76.9379</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>166.88312</v>
+        <v>172.89592</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>41.91154</v>
+        <v>57.80354</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>37.30628</v>
+        <v>56.61328</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>339.74563</v>
+        <v>376.89963</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>665.2354399999999</v>
+        <v>675.74919</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>195.20242</v>
+        <v>200.13954</v>
       </c>
       <c r="M38" s="48" t="n">
         <v>58.99831</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>650.25</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>5.04257</v>
+        <v>12.06799</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
@@ -2297,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0</v>
+        <v>15.22732</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>689.51</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>184.58835</v>
+        <v>3477.12859</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>103.90058</v>
+        <v>1742.22041</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>248.5192</v>
+        <v>3602.1293</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1016.54496</v>
+        <v>1638.03924</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>598.06809</v>
+        <v>6378.72666</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1103.86201</v>
+        <v>4776.85471</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1461.7007</v>
+        <v>23634.72575000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>724.72792</v>
+        <v>12082.66045</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>352.5597300000001</v>
+        <v>7640.014200000001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>9935.182490000003</v>
+        <v>38465.9007</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2266.01576</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>17563.61389</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>49465.908</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2402,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>0</v>
+        <v>0.7627</v>
       </c>
       <c r="G42" s="48" t="n">
         <v>0</v>
@@ -2425,248 +2516,283 @@
       <c r="M42" s="48" t="n">
         <v>13.57419</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>63.806</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>277.60181</v>
+        <v>296.4003</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>114.72176</v>
+        <v>159.30174</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>158.53065</v>
+        <v>250.19506</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>159.9568</v>
+        <v>193.18092</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>252.27272</v>
+        <v>7723.870200000001</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>52.1658</v>
+        <v>201.91134</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>206.2536</v>
+        <v>1576.61484</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>336.05815</v>
+        <v>1279.93003</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1750.69159</v>
+        <v>4352.53383</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>832.34923</v>
+        <v>1879.94019</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1735.90252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3318.28832</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3856.191</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>943.6605999999999</v>
+        <v>3329.79948</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>780.60754</v>
+        <v>2252.22925</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>656.02093</v>
+        <v>1289.3712</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>976.1403</v>
+        <v>2147.64338</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>1431.76766</v>
+        <v>2711.42626</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1546.49014</v>
+        <v>2805.8089</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1665.96131</v>
+        <v>4803.279259999999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2064.19654</v>
+        <v>7330.9605</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>2855.40031</v>
+        <v>6552.55173</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>8531.69989</v>
+        <v>14599.31959</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>9248.660800000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>38983.74489</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>31470.793</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>804.5565300000001</v>
+        <v>3181.799260000001</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>768.4032999999999</v>
+        <v>2238.80613</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>602.9557600000001</v>
+        <v>1183.16927</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>917.7114399999999</v>
+        <v>2078.29696</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>1311.15831</v>
+        <v>2590.81691</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1419.11095</v>
+        <v>2672.711119999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>1622.05403</v>
+        <v>4451.48589</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1966.8409</v>
+        <v>7057.600880000001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>2817.94846</v>
+        <v>6192.54011</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>8059.33454</v>
+        <v>11697.95041</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>9144.15259</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>34938.57129000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>27845.737</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>139.10407</v>
+        <v>148.00022</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>12.20424</v>
+        <v>13.42312</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>53.06517000000001</v>
+        <v>106.20193</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>58.42885999999999</v>
+        <v>69.34641999999999</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>120.60935</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>127.37919</v>
+        <v>133.09778</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>43.90728</v>
+        <v>351.79337</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>97.35564000000001</v>
+        <v>273.35962</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>37.45185000000001</v>
+        <v>360.01162</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>472.36535</v>
+        <v>2901.36918</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>104.50821</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4045.1736</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3625.056</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1619.70464</v>
+        <v>-2238.96129</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>449.96523</v>
+        <v>-190.07831</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-942.91576</v>
+        <v>-4256.54043</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-4859.503600000001</v>
+        <v>-8383.71781</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-6489.99118</v>
+        <v>-23615.98662</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1714.24496</v>
+        <v>-2829.13236</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-10589.06317</v>
+        <v>-18713.34545</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-8125.360469999999</v>
+        <v>-33025.2479</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-5156.72916</v>
+        <v>-9302.092470000001</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>943.0065300000005</v>
+        <v>-6540.876919999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-9243.911670000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-44144.19889</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-61727.883</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>428.28516</v>
+        <v>777.8990399999999</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>780.3065300000002</v>
+        <v>872.6281899999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>781.63156</v>
+        <v>1404.84116</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1686.87012</v>
+        <v>2674.57605</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3022.86575</v>
+        <v>11300.00155</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3071.25931</v>
+        <v>5439.7891</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1711.87568</v>
+        <v>3563.39979</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3181.14606</v>
+        <v>13016.25048</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3333.47755</v>
+        <v>15042.71543</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>11903.96509</v>
+        <v>21131.28069</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>8375.696840000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>17341.23486</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>22064.433</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>0</v>
+        <v>0.00696</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>0</v>
@@ -2681,106 +2807,121 @@
         <v>66.23874000000001</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>34.98849000000001</v>
+        <v>89.33129999999998</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>16.9061</v>
+        <v>22.84138</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>5.04936</v>
+        <v>32.34401999999999</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>39.88791</v>
+        <v>749.2824000000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>17.4398</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>6.6285</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>6.92272</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>22.002</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>428.28516</v>
+        <v>777.89208</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>780.3065300000002</v>
+        <v>872.62819</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>768.9292100000001</v>
+        <v>1392.13881</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1542.75264</v>
+        <v>2530.45857</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>2956.62701</v>
+        <v>11233.76281</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3036.27082</v>
+        <v>5350.4578</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1694.96958</v>
+        <v>3540.55841</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3176.0967</v>
+        <v>12983.90646</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3293.58964</v>
+        <v>14293.43303</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>11886.52529</v>
+        <v>21113.84089</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>8369.06834</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>17334.31214</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>22042.431</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>601.3979900000002</v>
+        <v>926.53529</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>762.36576</v>
+        <v>865.5485299999999</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>5543.84234</v>
+        <v>9008.253210000001</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>923.18641</v>
+        <v>3367.73172</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>1996.97455</v>
+        <v>3836.4243</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>6231.64354</v>
+        <v>12057.69888</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2103.02135</v>
+        <v>7244.101610000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>6385.87881</v>
+        <v>21781.62625</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>5307.22307</v>
+        <v>11453.47492</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>13366.10302</v>
+        <v>24081.56452</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>8397.749810000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>21954.06713</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>66204.879</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>2.1172</v>
@@ -2789,229 +2930,257 @@
         <v>13.13621</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>69.0945</v>
+        <v>1896.73442</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>3.1399</v>
+        <v>1385.4314</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>24.39316</v>
+        <v>878.74286</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>222.52811</v>
+        <v>2906.75727</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>12.30533</v>
+        <v>2720.90984</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>81.70125999999999</v>
+        <v>3639.80932</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>93.70977000000001</v>
+        <v>466.36468</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>413.65286</v>
+        <v>1580.22912</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>342.01135</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>4899.90018</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>4616.931</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>41.23285</v>
+        <v>41.38435</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>70.1755</v>
+        <v>152.44032</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>105.73699</v>
+        <v>233.79877</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>55.07825</v>
+        <v>98.05587999999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>101.14495</v>
+        <v>152.88388</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>170.62653</v>
+        <v>171.04203</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>150.55046</v>
+        <v>292.68313</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>247.54508</v>
+        <v>388.82048</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>474.7798700000001</v>
+        <v>628.96097</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>278.9497</v>
+        <v>386.66601</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>919.6048999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1169.60297</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>500.476</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>558.0479399999999</v>
+        <v>883.0337399999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>679.0540500000001</v>
+        <v>699.972</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>5369.01085</v>
+        <v>6877.72002</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>864.96826</v>
+        <v>1884.24444</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>1871.43644</v>
+        <v>2804.79756</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>5838.488899999999</v>
+        <v>8979.899579999999</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1940.16556</v>
+        <v>4230.50864</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>6056.63247</v>
+        <v>17752.99645</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4738.733429999999</v>
+        <v>10358.14927</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>12673.50046</v>
+        <v>22114.66939</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>7136.13356</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>15884.56398</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>61087.472</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1446.59181</v>
+        <v>-2387.59754</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>467.9059999999999</v>
+        <v>-182.99865</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-5705.12654</v>
+        <v>-11859.95248</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-4095.81989</v>
+        <v>-9076.873479999998</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-5464.099980000001</v>
+        <v>-16152.40937</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1446.13927</v>
+        <v>-9447.04214</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-10980.20884</v>
+        <v>-22394.04727</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-11330.09322</v>
+        <v>-41790.62367</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-7130.47468</v>
+        <v>-5712.85196</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-519.1313999999999</v>
+        <v>-9491.160749999999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-9265.96464</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-48757.03116</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-105868.329</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>695.43795</v>
+        <v>713.72238</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>713.60552</v>
+        <v>1025.97307</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>939.6124599999999</v>
+        <v>1156.56444</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>821.89537</v>
+        <v>1110.21716</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1213.03316</v>
+        <v>1799.69177</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1887.75149</v>
+        <v>2469.7484</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1147.3276</v>
+        <v>4639.51355</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>2026.80819</v>
+        <v>2595.36276</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1677.79239</v>
+        <v>3142.25027</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>5460.46125</v>
+        <v>8111.36492</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>5466.193919999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>8687.885739999998</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>9739.683000000001</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>751.15386</v>
+        <v>-3101.31992</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-245.69952</v>
+        <v>-1208.97172</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-6644.739</v>
+        <v>-13016.51692</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-4917.71526</v>
+        <v>-10187.09064</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-6677.13314</v>
+        <v>-17952.10114</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-3333.890760000001</v>
+        <v>-11916.79054</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-12127.53644</v>
+        <v>-27033.56082</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-13356.90141</v>
+        <v>-44385.98643</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-8808.26707</v>
+        <v>-8855.10223</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-5979.592650000001</v>
+        <v>-17602.52567</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-14732.15856</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-57444.9169</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-115608.012</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>360</v>
+        <v>393</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>417</v>
+        <v>462</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>483</v>
+        <v>530</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>505</v>
+        <v>573</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>694</v>
+        <v>781</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>745</v>
+        <v>854</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>774</v>
+        <v>919</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>878</v>
+        <v>1067</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>972</v>
+        <v>1164</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1280</v>
+        <v>1469</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1638</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>